--- a/data/trans_bre/POLIPATOLOGIA_5-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,47</t>
+          <t>0,11; 7,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 9,28</t>
+          <t>0,58; 9,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 14,25</t>
+          <t>4,25; 13,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,95</t>
+          <t>1,37; 5,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 531,64</t>
+          <t>-5,79; 452,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 366,52</t>
+          <t>-2,11; 307,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,88; 486,86</t>
+          <t>59,83; 451,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,57; 429,36</t>
+          <t>29,61; 536,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,74</t>
+          <t>5,24; 11,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,79</t>
+          <t>1,03; 7,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,69</t>
+          <t>2,12; 6,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 11,17</t>
+          <t>4,89; 11,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,87; 552,97</t>
+          <t>103,4; 582,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 228,16</t>
+          <t>13,35; 223,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,25; 764,98</t>
+          <t>73,6; 840,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,52; 274,48</t>
+          <t>60,42; 268,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,78</t>
+          <t>-0,55; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,85</t>
+          <t>1,93; 9,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,5</t>
+          <t>1,77; 8,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 9,35</t>
+          <t>0,78; 9,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 1059,69</t>
+          <t>-49,34; 823,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,55; 722,41</t>
+          <t>26,54; 572,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,5; 1107,14</t>
+          <t>33,23; 885,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 96,83</t>
+          <t>5,15; 88,9</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,46</t>
+          <t>-1,07; 4,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 13,72</t>
+          <t>6,12; 14,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,7</t>
+          <t>4,14; 12,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 7,16</t>
+          <t>-4,66; 7,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 360,99</t>
+          <t>-35,42; 286,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>105,54; 506,51</t>
+          <t>104,06; 572,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,1; 356,28</t>
+          <t>57,51; 347,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 83,71</t>
+          <t>-30,55; 84,82</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 7,28</t>
+          <t>-0,91; 7,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 16,21</t>
+          <t>2,05; 15,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 11,74</t>
+          <t>1,69; 11,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 10,91</t>
+          <t>-2,54; 10,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,56; 742,26</t>
+          <t>-41,42; 680,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,47; 286,13</t>
+          <t>16,78; 251,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 424,02</t>
+          <t>18,83; 470,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 140,93</t>
+          <t>-18,86; 144,04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,6</t>
+          <t>2,3; 7,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,94</t>
+          <t>-2,15; 5,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,68</t>
+          <t>-0,84; 6,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,04; 16,14</t>
+          <t>5,02; 16,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,24 +1193,24 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 188,79</t>
+          <t>-33,65; 187,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 320,74</t>
+          <t>-25,02; 292,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,43; 110,72</t>
+          <t>25,92; 109,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,11</t>
+          <t>0,44; 4,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,54</t>
+          <t>4,16; 9,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,44</t>
+          <t>3,68; 9,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,26; 61,82</t>
+          <t>12,48; 58,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 232,64</t>
+          <t>7,96; 206,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,21; 427,09</t>
+          <t>92,67; 465,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>68,21; 315,91</t>
+          <t>57,52; 308,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>122,49; 781,23</t>
+          <t>123,69; 766,1</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 4,76</t>
+          <t>-1,06; 4,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,58</t>
+          <t>4,23; 8,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,42</t>
+          <t>4,92; 10,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,6; 12,78</t>
+          <t>5,61; 12,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 79,97</t>
+          <t>-11,99; 78,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>151,78; 763,04</t>
+          <t>156,92; 782,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>102,73; 411,88</t>
+          <t>107,88; 397,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,03; 554,29</t>
+          <t>78,53; 470,89</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,42</t>
+          <t>2,26; 4,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,36</t>
+          <t>4,85; 7,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,56</t>
+          <t>5,12; 7,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,5; 27,08</t>
+          <t>7,47; 27,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>56,27; 145,6</t>
+          <t>59,86; 150,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>110,21; 221,93</t>
+          <t>110,47; 214,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>128,79; 250,31</t>
+          <t>127,29; 242,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>88,81; 399,21</t>
+          <t>86,67; 371,67</t>
         </is>
       </c>
     </row>
